--- a/target/test-classes/Test_datas/SCTE_VT/Book2.xlsx
+++ b/target/test-classes/Test_datas/SCTE_VT/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coempt_Automation\coempt_automation\src\test\resources\Test_datas\SCTE_VT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\src\test\resources\Test_datas\SCTE_VT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>studregdnumber</t>
   </si>
@@ -32,17 +32,26 @@
     <t>Name</t>
   </si>
   <si>
-    <t>F20116004010</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>F22017001023</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Sem Mark</t>
+  </si>
+  <si>
+    <t>TH5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +67,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,19 +89,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -370,32 +404,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
